--- a/receipt_result.xlsx
+++ b/receipt_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,11 @@
           <t>서울식당</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>2025-07-02</t>
@@ -500,24 +504,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>서울식당</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>고등어정식</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +538,11 @@
           <t>서울식당</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>2025-07-02</t>
@@ -538,40 +554,44 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9900</v>
+        <v>12700</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>39600</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>서울식당</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>스타벅스</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>접대비</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>고등어정식</t>
+          <t>아메리카노</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12700</v>
+        <v>4500</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>38100</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +600,14 @@
           <t>스타벅스</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>접대비</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -592,644 +616,292 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4500</v>
+        <v>5600</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>18000</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>쿠팡</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>동네문구</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>소모품비</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>볼펜</t>
+        </is>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>스타벅스</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>접대비</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>아메리카노</t>
+        </is>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>스타벅스</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>이마트</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>소모품비</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>아메리카노</t>
+          <t>복사용지</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>11200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>이마트</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>소모품비</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>볼펜</t>
+          <t>복사용지</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>8400</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>스타벅스</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>비품비</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>마우스</t>
+        </is>
+      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>스타벅스</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>서울식당</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>아메리카노</t>
+          <t>고등어정식</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4000</v>
+        <v>11900</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>16000</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>서울식당</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>비품비</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>마우스</t>
+        </is>
+      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>29600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서울식당</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>스타벅스</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>접대비</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>원</t>
+          <t>아메리카노</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9273</v>
+        <v>4300</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>이마트</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>스타벅스</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>접대비</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>복사용지</t>
+          <t>아메리카노</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>이마트</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>복사용지</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4500</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2025-07-20</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>롯데마트</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-07-20</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>김밥천국</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>쿠팡</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>마우스</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>20600</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>서울식당</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-07-24</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>고등어정식</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>35700</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-07-24</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>김밥천국</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-07-25</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>원</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>1145</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>롯데마트</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-07-25</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>쿠팡</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>마우스</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>14800</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>29600</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>스타벅스</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>아메리카노</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>4300</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
         <v>17200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>배달의민족</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>원</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1582</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>동네문구</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-07-29</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>스타벅스</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>아메리카노</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>4300</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>배달의민족</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>원</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1491</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6400</v>
       </c>
     </row>
   </sheetData>
